--- a/biology/Zoologie/Elysia_ornata/Elysia_ornata.xlsx
+++ b/biology/Zoologie/Elysia_ornata/Elysia_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elysia ornata · Elysie ornée, Limace ornée
-Elysia ornata, communément nommé Elysie ornée ou Limace ornée[1], est une espèce de mollusque sacoglosse de la famille des Placobranchidae. 
+Elysia ornata, communément nommé Elysie ornée ou Limace ornée, est une espèce de mollusque sacoglosse de la famille des Placobranchidae. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distribution de l'espèce est circumtropicale ; elle est présente dans la Mer des caraïbes ainsi que dans la zone Indo-Ouest Pacifique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distribution de l'espèce est circumtropicale ; elle est présente dans la Mer des caraïbes ainsi que dans la zone Indo-Ouest Pacifique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat est la zone récifale externe, sur les sommets ou sur les pentes jusqu'à la zone des 20 m de profondeur avec une prédilection pour les zones sablonneuses avec la présence d'herbiers[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la zone récifale externe, sur les sommets ou sur les pentes jusqu'à la zone des 20 m de profondeur avec une prédilection pour les zones sablonneuses avec la présence d'herbiers.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut mesurer plus de 5 cm[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut mesurer plus de 5 cm. 
 Le corps est allongé et partiellement recouvert dans le sens de la longueur par le repli des parapodes latéraux dont les bords sont ondulés. Ils peuvent vaguement donner l'impression que l'animal possède de petites ailes.
 La couleur du corps varie d'un individu à l'autre et va du vert au blanc gris laiteux avec des points noirs et blancs. L'animal peut être soit entièrement d'une de ces teintes, soit un dégradé des deux.
 L'extrême bord des parapodes est marqué en général par un trait noir avec parfois des marques orange ou jaunes.
@@ -609,9 +627,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette élysie est benthique et diurne, se déplace à vue sans crainte d'être prise pour une proie de par la présence de glandes défensives réparties dans les tissus du corps[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette élysie est benthique et diurne, se déplace à vue sans crainte d'être prise pour une proie de par la présence de glandes défensives réparties dans les tissus du corps.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elysia ornata se nourrit principalement d'algues des genres Codium et Bryopsis[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elysia ornata se nourrit principalement d'algues des genres Codium et Bryopsis.
 </t>
         </is>
       </c>
